--- a/static/suratsalman.xlsx
+++ b/static/suratsalman.xlsx
@@ -12753,32 +12753,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q242"/>
+  <dimension ref="B1:Q242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="2.4"/>
-    <col customWidth="1" max="2" min="2" width="43.2"/>
-    <col customWidth="1" max="3" min="3" width="108"/>
-    <col customWidth="1" max="4" min="4" width="259.2"/>
-    <col customWidth="1" max="5" min="5" width="127.2"/>
-    <col customWidth="1" max="6" min="6" width="38.4"/>
-    <col customWidth="1" max="7" min="7" width="44.4"/>
-    <col customWidth="1" max="8" min="8" width="48"/>
-    <col customWidth="1" max="9" min="9" width="26.4"/>
-    <col customWidth="1" max="10" min="10" width="434.4"/>
-    <col customWidth="1" max="11" min="11" width="271.2"/>
-    <col customWidth="1" max="12" min="12" width="67.2"/>
-    <col customWidth="1" max="13" min="13" width="46.8"/>
-    <col customWidth="1" max="14" min="14" width="16.8"/>
-    <col customWidth="1" max="15" min="15" width="21.6"/>
-    <col customWidth="1" max="16" min="16" width="43.2"/>
-    <col customWidth="1" max="17" min="17" width="43.2"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="B1" t="s">
@@ -19908,31 +19889,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P1153"/>
+  <dimension ref="B1:P1153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
-  <cols>
-    <col customWidth="1" max="1" min="1" width="2.4"/>
-    <col customWidth="1" max="2" min="2" width="81.59999999999999"/>
-    <col customWidth="1" max="3" min="3" width="49.2"/>
-    <col customWidth="1" max="4" min="4" width="54"/>
-    <col customWidth="1" max="5" min="5" width="73.2"/>
-    <col customWidth="1" max="6" min="6" width="78"/>
-    <col customWidth="1" max="7" min="7" width="90"/>
-    <col customWidth="1" max="8" min="8" width="112.8"/>
-    <col customWidth="1" max="9" min="9" width="162"/>
-    <col customWidth="1" max="10" min="10" width="48"/>
-    <col customWidth="1" max="11" min="11" width="22.8"/>
-    <col customWidth="1" max="12" min="12" width="87.59999999999999"/>
-    <col customWidth="1" max="13" min="13" width="37.2"/>
-    <col customWidth="1" max="14" min="14" width="24"/>
-    <col customWidth="1" max="15" min="15" width="34.8"/>
-    <col customWidth="1" max="16" min="16" width="14.4"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="B1" t="s">
